--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H2">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I2">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J2">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.155977333333334</v>
+        <v>2.885873333333334</v>
       </c>
       <c r="N2">
-        <v>9.467932000000001</v>
+        <v>8.657620000000001</v>
       </c>
       <c r="O2">
-        <v>0.3579027849973545</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="P2">
-        <v>0.3579027849973545</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="Q2">
-        <v>2.755318646919557</v>
+        <v>2.617919994333334</v>
       </c>
       <c r="R2">
-        <v>24.797867822276</v>
+        <v>23.561279949</v>
       </c>
       <c r="S2">
-        <v>0.006230832833342644</v>
+        <v>0.005274390525259102</v>
       </c>
       <c r="T2">
-        <v>0.006230832833342644</v>
+        <v>0.0052743905252591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H3">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I3">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J3">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.497861</v>
       </c>
       <c r="O3">
-        <v>0.3590341484727349</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="P3">
-        <v>0.3590341484727349</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="Q3">
-        <v>2.764028461458111</v>
+        <v>2.871994868716667</v>
       </c>
       <c r="R3">
-        <v>24.876256153123</v>
+        <v>25.84795381845</v>
       </c>
       <c r="S3">
-        <v>0.006250529066466107</v>
+        <v>0.005786281688111505</v>
       </c>
       <c r="T3">
-        <v>0.006250529066466107</v>
+        <v>0.005786281688111504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8730476666666668</v>
+        <v>0.90715</v>
       </c>
       <c r="H4">
-        <v>2.619143</v>
+        <v>2.72145</v>
       </c>
       <c r="I4">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J4">
-        <v>0.01740928848427011</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.496042666666666</v>
+        <v>3.327024333333334</v>
       </c>
       <c r="N4">
-        <v>7.488128</v>
+        <v>9.981073</v>
       </c>
       <c r="O4">
-        <v>0.2830630665299106</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="P4">
-        <v>0.2830630665299106</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="Q4">
-        <v>2.179164226033778</v>
+        <v>3.018110123983333</v>
       </c>
       <c r="R4">
-        <v>19.612478034304</v>
+        <v>27.16299111585</v>
       </c>
       <c r="S4">
-        <v>0.004927926584461355</v>
+        <v>0.006080663838690013</v>
       </c>
       <c r="T4">
-        <v>0.004927926584461355</v>
+        <v>0.006080663838690012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.252512666666667</v>
+        <v>0.90715</v>
       </c>
       <c r="H5">
-        <v>3.757538</v>
+        <v>2.72145</v>
       </c>
       <c r="I5">
-        <v>0.02497613266347325</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="J5">
-        <v>0.02497613266347325</v>
+        <v>0.01717809939998381</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.155977333333334</v>
+        <v>0.020115</v>
       </c>
       <c r="N5">
-        <v>9.467932000000001</v>
+        <v>0.060345</v>
       </c>
       <c r="O5">
-        <v>0.3579027849973545</v>
+        <v>0.002140128955315263</v>
       </c>
       <c r="P5">
-        <v>0.3579027849973545</v>
+        <v>0.002140128955315263</v>
       </c>
       <c r="Q5">
-        <v>3.95290158571289</v>
+        <v>0.01824732225</v>
       </c>
       <c r="R5">
-        <v>35.57611427141601</v>
+        <v>0.16422590025</v>
       </c>
       <c r="S5">
-        <v>0.008939027438720472</v>
+        <v>3.67633479231891E-05</v>
       </c>
       <c r="T5">
-        <v>0.00893902743872047</v>
+        <v>3.67633479231891E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>3.757538</v>
       </c>
       <c r="I6">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J6">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.165953666666667</v>
+        <v>2.885873333333334</v>
       </c>
       <c r="N6">
-        <v>9.497861</v>
+        <v>8.657620000000001</v>
       </c>
       <c r="O6">
-        <v>0.3590341484727349</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="P6">
-        <v>0.3590341484727349</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="Q6">
-        <v>3.965397069579778</v>
+        <v>3.614592904395557</v>
       </c>
       <c r="R6">
-        <v>35.688573626218</v>
+        <v>32.53133613956001</v>
       </c>
       <c r="S6">
-        <v>0.00896728452297218</v>
+        <v>0.007282412987745884</v>
       </c>
       <c r="T6">
-        <v>0.008967284522972178</v>
+        <v>0.007282412987745884</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>3.757538</v>
       </c>
       <c r="I7">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J7">
-        <v>0.02497613266347325</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.496042666666666</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N7">
-        <v>7.488128</v>
+        <v>9.497861</v>
       </c>
       <c r="O7">
-        <v>0.2830630665299106</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="P7">
-        <v>0.2830630665299106</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="Q7">
-        <v>3.126325056540444</v>
+        <v>3.965397069579778</v>
       </c>
       <c r="R7">
-        <v>28.136925508864</v>
+        <v>35.688573626218</v>
       </c>
       <c r="S7">
-        <v>0.007069820701780602</v>
+        <v>0.007989187132515068</v>
       </c>
       <c r="T7">
-        <v>0.007069820701780602</v>
+        <v>0.007989187132515067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.389349666666666</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H8">
-        <v>7.168049</v>
+        <v>3.757538</v>
       </c>
       <c r="I8">
-        <v>0.04764559739975397</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J8">
-        <v>0.04764559739975397</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.155977333333334</v>
+        <v>3.327024333333334</v>
       </c>
       <c r="N8">
-        <v>9.467932000000001</v>
+        <v>9.981073</v>
       </c>
       <c r="O8">
-        <v>0.3579027849973545</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="P8">
-        <v>0.3579027849973545</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="Q8">
-        <v>7.540733389407556</v>
+        <v>4.167140119808223</v>
       </c>
       <c r="R8">
-        <v>67.86660050466801</v>
+        <v>37.50426107827401</v>
       </c>
       <c r="S8">
-        <v>0.01705249200223466</v>
+        <v>0.008395644027670396</v>
       </c>
       <c r="T8">
-        <v>0.01705249200223466</v>
+        <v>0.008395644027670394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.389349666666666</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H9">
-        <v>7.168049</v>
+        <v>3.757538</v>
       </c>
       <c r="I9">
-        <v>0.04764559739975397</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="J9">
-        <v>0.04764559739975397</v>
+        <v>0.0237180037344858</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.165953666666667</v>
+        <v>0.020115</v>
       </c>
       <c r="N9">
-        <v>9.497861</v>
+        <v>0.060345</v>
       </c>
       <c r="O9">
-        <v>0.3590341484727349</v>
+        <v>0.002140128955315263</v>
       </c>
       <c r="P9">
-        <v>0.3590341484727349</v>
+        <v>0.002140128955315263</v>
       </c>
       <c r="Q9">
-        <v>7.564570338132111</v>
+        <v>0.02519429229</v>
       </c>
       <c r="R9">
-        <v>68.081133043189</v>
+        <v>0.22674863061</v>
       </c>
       <c r="S9">
-        <v>0.01710639649089542</v>
+        <v>5.07595865544486E-05</v>
       </c>
       <c r="T9">
-        <v>0.01710639649089542</v>
+        <v>5.07595865544486E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.389349666666666</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H10">
-        <v>7.168049</v>
+        <v>6.743497</v>
       </c>
       <c r="I10">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J10">
-        <v>0.04764559739975397</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.496042666666666</v>
+        <v>2.885873333333334</v>
       </c>
       <c r="N10">
-        <v>7.488128</v>
+        <v>8.657620000000001</v>
       </c>
       <c r="O10">
-        <v>0.2830630665299106</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="P10">
-        <v>0.2830630665299106</v>
+        <v>0.3070415651026022</v>
       </c>
       <c r="Q10">
-        <v>5.963918713585777</v>
+        <v>6.486959388571112</v>
       </c>
       <c r="R10">
-        <v>53.675268422272</v>
+        <v>58.38263449714</v>
       </c>
       <c r="S10">
-        <v>0.01348670890662389</v>
+        <v>0.0130694433790491</v>
       </c>
       <c r="T10">
-        <v>0.01348670890662389</v>
+        <v>0.0130694433790491</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.633473</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H11">
-        <v>136.900419</v>
+        <v>6.743497</v>
       </c>
       <c r="I11">
-        <v>0.9099689814525027</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J11">
-        <v>0.9099689814525026</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.155977333333334</v>
+        <v>3.165953666666667</v>
       </c>
       <c r="N11">
-        <v>9.467932000000001</v>
+        <v>9.497861</v>
       </c>
       <c r="O11">
-        <v>0.3579027849973545</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="P11">
-        <v>0.3579027849973545</v>
+        <v>0.3368406220840099</v>
       </c>
       <c r="Q11">
-        <v>144.0182064292787</v>
+        <v>7.116533017768555</v>
       </c>
       <c r="R11">
-        <v>1296.163857863508</v>
+        <v>64.048797159917</v>
       </c>
       <c r="S11">
-        <v>0.3256804327230567</v>
+        <v>0.01433786150946549</v>
       </c>
       <c r="T11">
-        <v>0.3256804327230567</v>
+        <v>0.01433786150946549</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.633473</v>
+        <v>2.247832333333333</v>
       </c>
       <c r="H12">
-        <v>136.900419</v>
+        <v>6.743497</v>
       </c>
       <c r="I12">
-        <v>0.9099689814525027</v>
+        <v>0.04256571378106988</v>
       </c>
       <c r="J12">
-        <v>0.9099689814525026</v>
+        <v>0.04256571378106987</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.165953666666667</v>
+        <v>3.327024333333334</v>
       </c>
       <c r="N12">
-        <v>9.497861</v>
+        <v>9.981073</v>
       </c>
       <c r="O12">
-        <v>0.3590341484727349</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="P12">
-        <v>0.3590341484727349</v>
+        <v>0.3539776838580724</v>
       </c>
       <c r="Q12">
-        <v>144.4734611670843</v>
+        <v>7.478592870253444</v>
       </c>
       <c r="R12">
-        <v>1300.261150503759</v>
+        <v>67.307335832281</v>
       </c>
       <c r="S12">
-        <v>0.3267099383924012</v>
+        <v>0.01506731277598875</v>
       </c>
       <c r="T12">
-        <v>0.3267099383924012</v>
+        <v>0.01506731277598875</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.247832333333333</v>
+      </c>
+      <c r="H13">
+        <v>6.743497</v>
+      </c>
+      <c r="I13">
+        <v>0.04256571378106988</v>
+      </c>
+      <c r="J13">
+        <v>0.04256571378106987</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.020115</v>
+      </c>
+      <c r="N13">
+        <v>0.060345</v>
+      </c>
+      <c r="O13">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="P13">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="Q13">
+        <v>0.045215147385</v>
+      </c>
+      <c r="R13">
+        <v>0.406936326465</v>
+      </c>
+      <c r="S13">
+        <v>9.109611656652958E-05</v>
+      </c>
+      <c r="T13">
+        <v>9.109611656652958E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>48.40102466666667</v>
+      </c>
+      <c r="H14">
+        <v>145.203074</v>
+      </c>
+      <c r="I14">
+        <v>0.9165381830844606</v>
+      </c>
+      <c r="J14">
+        <v>0.9165381830844604</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.885873333333334</v>
+      </c>
+      <c r="N14">
+        <v>8.657620000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.3070415651026022</v>
+      </c>
+      <c r="P14">
+        <v>0.3070415651026022</v>
+      </c>
+      <c r="Q14">
+        <v>139.6792263915423</v>
+      </c>
+      <c r="R14">
+        <v>1257.11303752388</v>
+      </c>
+      <c r="S14">
+        <v>0.2814153182105482</v>
+      </c>
+      <c r="T14">
+        <v>0.2814153182105481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>48.40102466666667</v>
+      </c>
+      <c r="H15">
+        <v>145.203074</v>
+      </c>
+      <c r="I15">
+        <v>0.9165381830844606</v>
+      </c>
+      <c r="J15">
+        <v>0.9165381830844604</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.165953666666667</v>
+      </c>
+      <c r="N15">
+        <v>9.497861</v>
+      </c>
+      <c r="O15">
+        <v>0.3368406220840099</v>
+      </c>
+      <c r="P15">
+        <v>0.3368406220840099</v>
+      </c>
+      <c r="Q15">
+        <v>153.2354015138571</v>
+      </c>
+      <c r="R15">
+        <v>1379.118613624714</v>
+      </c>
+      <c r="S15">
+        <v>0.3087272917539179</v>
+      </c>
+      <c r="T15">
+        <v>0.3087272917539178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>45.633473</v>
-      </c>
-      <c r="H13">
-        <v>136.900419</v>
-      </c>
-      <c r="I13">
-        <v>0.9099689814525027</v>
-      </c>
-      <c r="J13">
-        <v>0.9099689814525026</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.496042666666666</v>
-      </c>
-      <c r="N13">
-        <v>7.488128</v>
-      </c>
-      <c r="O13">
-        <v>0.2830630665299106</v>
-      </c>
-      <c r="P13">
-        <v>0.2830630665299106</v>
-      </c>
-      <c r="Q13">
-        <v>113.9030956361813</v>
-      </c>
-      <c r="R13">
-        <v>1025.127860725632</v>
-      </c>
-      <c r="S13">
-        <v>0.2575786103370448</v>
-      </c>
-      <c r="T13">
-        <v>0.2575786103370447</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>48.40102466666667</v>
+      </c>
+      <c r="H16">
+        <v>145.203074</v>
+      </c>
+      <c r="I16">
+        <v>0.9165381830844606</v>
+      </c>
+      <c r="J16">
+        <v>0.9165381830844604</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.327024333333334</v>
+      </c>
+      <c r="N16">
+        <v>9.981073</v>
+      </c>
+      <c r="O16">
+        <v>0.3539776838580724</v>
+      </c>
+      <c r="P16">
+        <v>0.3539776838580724</v>
+      </c>
+      <c r="Q16">
+        <v>161.0313868242669</v>
+      </c>
+      <c r="R16">
+        <v>1449.282481418402</v>
+      </c>
+      <c r="S16">
+        <v>0.3244340632157233</v>
+      </c>
+      <c r="T16">
+        <v>0.3244340632157233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>48.40102466666667</v>
+      </c>
+      <c r="H17">
+        <v>145.203074</v>
+      </c>
+      <c r="I17">
+        <v>0.9165381830844606</v>
+      </c>
+      <c r="J17">
+        <v>0.9165381830844604</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.020115</v>
+      </c>
+      <c r="N17">
+        <v>0.060345</v>
+      </c>
+      <c r="O17">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="P17">
+        <v>0.002140128955315263</v>
+      </c>
+      <c r="Q17">
+        <v>0.9735866111700001</v>
+      </c>
+      <c r="R17">
+        <v>8.762279500530001</v>
+      </c>
+      <c r="S17">
+        <v>0.001961509904271096</v>
+      </c>
+      <c r="T17">
+        <v>0.001961509904271096</v>
       </c>
     </row>
   </sheetData>
